--- a/data/analysis/social_media_analytics/pivot_tables/country/museum_activity_groups__var1-country.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country/museum_activity_groups__var1-country.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -437,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -475,105 +478,159 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1982</v>
+        <v>1479</v>
       </c>
       <c r="C4">
-        <v>82.59999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="D4">
-        <v>337.3</v>
+        <v>245.9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -588,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>495.5</v>
+        <v>369.8</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -603,16 +660,16 @@
         <v>16.7</v>
       </c>
       <c r="N4">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="O4">
-        <v>842</v>
+        <v>500</v>
       </c>
       <c r="P4">
-        <v>35.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q4">
-        <v>132.4</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -627,36 +684,75 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="W4">
         <v>24</v>
       </c>
       <c r="X4">
+        <v>125</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>16.7</v>
+      </c>
+      <c r="AA4">
+        <v>-1.6</v>
+      </c>
+      <c r="AB4">
+        <v>842</v>
+      </c>
+      <c r="AC4">
+        <v>35.1</v>
+      </c>
+      <c r="AD4">
+        <v>132.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>619</v>
+      </c>
+      <c r="AJ4">
+        <v>24</v>
+      </c>
+      <c r="AK4">
         <v>421</v>
       </c>
-      <c r="Y4">
+      <c r="AL4">
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>8.300000000000001</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>4212084</v>
+        <v>1886800</v>
       </c>
       <c r="C5">
-        <v>1681.5</v>
+        <v>753.2</v>
       </c>
       <c r="D5">
-        <v>4778.1</v>
+        <v>1772</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -665,37 +761,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="H5">
-        <v>1343</v>
+        <v>881</v>
       </c>
       <c r="I5">
-        <v>74441</v>
+        <v>43003</v>
       </c>
       <c r="J5">
         <v>2505</v>
       </c>
       <c r="K5">
-        <v>2426.3</v>
+        <v>1191.2</v>
       </c>
       <c r="L5">
-        <v>1736</v>
+        <v>1584</v>
       </c>
       <c r="M5">
-        <v>69.3</v>
+        <v>63.2</v>
       </c>
       <c r="N5">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="O5">
-        <v>872632</v>
+        <v>748328</v>
       </c>
       <c r="P5">
-        <v>348.4</v>
+        <v>298.7</v>
       </c>
       <c r="Q5">
-        <v>1154.4</v>
+        <v>1415.6</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -704,42 +800,81 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U5">
-        <v>445</v>
+        <v>168</v>
       </c>
       <c r="V5">
-        <v>36948</v>
+        <v>46992</v>
       </c>
       <c r="W5">
         <v>2505</v>
       </c>
       <c r="X5">
+        <v>464.8</v>
+      </c>
+      <c r="Y5">
+        <v>1610</v>
+      </c>
+      <c r="Z5">
+        <v>64.3</v>
+      </c>
+      <c r="AA5">
+        <v>1.1</v>
+      </c>
+      <c r="AB5">
+        <v>872632</v>
+      </c>
+      <c r="AC5">
+        <v>348.4</v>
+      </c>
+      <c r="AD5">
+        <v>1154.4</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>445</v>
+      </c>
+      <c r="AI5">
+        <v>36948</v>
+      </c>
+      <c r="AJ5">
+        <v>2505</v>
+      </c>
+      <c r="AK5">
         <v>920.5</v>
       </c>
-      <c r="Y5">
+      <c r="AL5">
         <v>948</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>37.8</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>72980</v>
+        <v>50940</v>
       </c>
       <c r="C6">
-        <v>4865.3</v>
+        <v>3396</v>
       </c>
       <c r="D6">
-        <v>17694.4</v>
+        <v>12233.9</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -751,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="I6">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6">
-        <v>14596</v>
+        <v>10188</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -769,16 +904,16 @@
         <v>33.3</v>
       </c>
       <c r="N6">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="O6">
-        <v>675</v>
+        <v>21724</v>
       </c>
       <c r="P6">
-        <v>45</v>
+        <v>1448.3</v>
       </c>
       <c r="Q6">
-        <v>174.3</v>
+        <v>5378.6</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -790,39 +925,78 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="W6">
         <v>15</v>
       </c>
       <c r="X6">
+        <v>4344.8</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>33.3</v>
+      </c>
+      <c r="AA6">
+        <v>-0.7</v>
+      </c>
+      <c r="AB6">
         <v>675</v>
       </c>
-      <c r="Y6">
+      <c r="AC6">
+        <v>45</v>
+      </c>
+      <c r="AD6">
+        <v>174.3</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>675</v>
+      </c>
+      <c r="AJ6">
+        <v>15</v>
+      </c>
+      <c r="AK6">
+        <v>675</v>
+      </c>
+      <c r="AL6">
         <v>1</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>6.7</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>181666</v>
+        <v>51766</v>
       </c>
       <c r="C7">
-        <v>1932.6</v>
+        <v>550.7</v>
       </c>
       <c r="D7">
-        <v>5038.8</v>
+        <v>1742.2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -831,37 +1005,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1033.5</v>
+        <v>525.2</v>
       </c>
       <c r="I7">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="J7">
         <v>94</v>
       </c>
       <c r="K7">
-        <v>3303</v>
+        <v>1150.4</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>58.5</v>
+        <v>47.9</v>
       </c>
       <c r="N7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O7">
-        <v>46688</v>
+        <v>18156</v>
       </c>
       <c r="P7">
-        <v>496.7</v>
+        <v>193.1</v>
       </c>
       <c r="Q7">
-        <v>1384.1</v>
+        <v>1081.3</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -873,39 +1047,78 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>534.8</v>
+        <v>64.8</v>
       </c>
       <c r="V7">
-        <v>7664</v>
+        <v>10421</v>
       </c>
       <c r="W7">
         <v>94</v>
       </c>
       <c r="X7">
+        <v>422.2</v>
+      </c>
+      <c r="Y7">
+        <v>43</v>
+      </c>
+      <c r="Z7">
+        <v>45.7</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>46688</v>
+      </c>
+      <c r="AC7">
+        <v>496.7</v>
+      </c>
+      <c r="AD7">
+        <v>1384.1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>534.8</v>
+      </c>
+      <c r="AI7">
+        <v>7664</v>
+      </c>
+      <c r="AJ7">
+        <v>94</v>
+      </c>
+      <c r="AK7">
         <v>1506.1</v>
       </c>
-      <c r="Y7">
+      <c r="AL7">
         <v>31</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>33</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>645145</v>
+        <v>315541</v>
       </c>
       <c r="C8">
-        <v>1306</v>
+        <v>638.7</v>
       </c>
       <c r="D8">
-        <v>4789.6</v>
+        <v>2445.9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -914,37 +1127,37 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>862</v>
+        <v>543.2</v>
       </c>
       <c r="I8">
-        <v>68140</v>
+        <v>47580</v>
       </c>
       <c r="J8">
         <v>494</v>
       </c>
       <c r="K8">
-        <v>2312.3</v>
+        <v>1247.2</v>
       </c>
       <c r="L8">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="M8">
-        <v>56.5</v>
+        <v>51.2</v>
       </c>
       <c r="N8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O8">
-        <v>160903</v>
+        <v>101125</v>
       </c>
       <c r="P8">
-        <v>325.7</v>
+        <v>204.7</v>
       </c>
       <c r="Q8">
-        <v>1766.4</v>
+        <v>868.9</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -953,42 +1166,81 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>126.5</v>
+        <v>92.2</v>
       </c>
       <c r="V8">
-        <v>36858</v>
+        <v>9692</v>
       </c>
       <c r="W8">
         <v>494</v>
       </c>
       <c r="X8">
+        <v>392</v>
+      </c>
+      <c r="Y8">
+        <v>258</v>
+      </c>
+      <c r="Z8">
+        <v>52.2</v>
+      </c>
+      <c r="AA8">
+        <v>0.4</v>
+      </c>
+      <c r="AB8">
+        <v>160903</v>
+      </c>
+      <c r="AC8">
+        <v>325.7</v>
+      </c>
+      <c r="AD8">
+        <v>1766.4</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>126.5</v>
+      </c>
+      <c r="AI8">
+        <v>36858</v>
+      </c>
+      <c r="AJ8">
+        <v>494</v>
+      </c>
+      <c r="AK8">
         <v>1200.8</v>
       </c>
-      <c r="Y8">
+      <c r="AL8">
         <v>134</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>27.1</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>329094</v>
+        <v>97303</v>
       </c>
       <c r="C9">
-        <v>1589.8</v>
+        <v>470.1</v>
       </c>
       <c r="D9">
-        <v>4396.2</v>
+        <v>922</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -997,37 +1249,37 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>1061.5</v>
+        <v>498.5</v>
       </c>
       <c r="I9">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="J9">
         <v>207</v>
       </c>
       <c r="K9">
-        <v>2402.1</v>
+        <v>838.8</v>
       </c>
       <c r="L9">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="M9">
-        <v>66.2</v>
+        <v>56</v>
       </c>
       <c r="N9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O9">
-        <v>104876</v>
+        <v>19229</v>
       </c>
       <c r="P9">
-        <v>506.6</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Q9">
-        <v>1511.3</v>
+        <v>281.9</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1036,34 +1288,74 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>430.5</v>
+        <v>68.5</v>
       </c>
       <c r="V9">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="W9">
         <v>207</v>
       </c>
       <c r="X9">
+        <v>164.4</v>
+      </c>
+      <c r="Y9">
+        <v>117</v>
+      </c>
+      <c r="Z9">
+        <v>56.5</v>
+      </c>
+      <c r="AA9">
+        <v>0.7</v>
+      </c>
+      <c r="AB9">
+        <v>104876</v>
+      </c>
+      <c r="AC9">
+        <v>506.6</v>
+      </c>
+      <c r="AD9">
+        <v>1511.3</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>430.5</v>
+      </c>
+      <c r="AI9">
+        <v>13336</v>
+      </c>
+      <c r="AJ9">
+        <v>207</v>
+      </c>
+      <c r="AK9">
         <v>1165.3</v>
       </c>
-      <c r="Y9">
+      <c r="AL9">
         <v>90</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>43.5</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>1.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/country/museum_activity_groups__var1-country.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country/museum_activity_groups__var1-country.xlsx
@@ -624,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1479</v>
+        <v>1929</v>
       </c>
       <c r="C4">
-        <v>61.6</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D4">
-        <v>245.9</v>
+        <v>336.4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>369.8</v>
+        <v>482.2</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -660,16 +660,16 @@
         <v>16.7</v>
       </c>
       <c r="N4">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="O4">
-        <v>500</v>
+        <v>698</v>
       </c>
       <c r="P4">
-        <v>20.8</v>
+        <v>29.1</v>
       </c>
       <c r="Q4">
-        <v>91.09999999999999</v>
+        <v>131</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="W4">
         <v>24</v>
       </c>
       <c r="X4">
-        <v>125</v>
+        <v>174.5</v>
       </c>
       <c r="Y4">
         <v>4</v>
@@ -702,13 +702,13 @@
         <v>-1.6</v>
       </c>
       <c r="AB4">
-        <v>842</v>
+        <v>2285</v>
       </c>
       <c r="AC4">
-        <v>35.1</v>
+        <v>95.2</v>
       </c>
       <c r="AD4">
-        <v>132.4</v>
+        <v>250.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -720,25 +720,25 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AI4">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AJ4">
         <v>24</v>
       </c>
       <c r="AK4">
-        <v>421</v>
+        <v>380.8</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AM4">
-        <v>8.300000000000001</v>
+        <v>25</v>
       </c>
       <c r="AN4">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -746,13 +746,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1886800</v>
+        <v>2217968</v>
       </c>
       <c r="C5">
-        <v>753.2</v>
+        <v>885.4</v>
       </c>
       <c r="D5">
-        <v>1772</v>
+        <v>2152.4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -761,37 +761,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H5">
-        <v>881</v>
+        <v>1024</v>
       </c>
       <c r="I5">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="J5">
         <v>2505</v>
       </c>
       <c r="K5">
-        <v>1191.2</v>
+        <v>1413.6</v>
       </c>
       <c r="L5">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="M5">
-        <v>63.2</v>
+        <v>62.6</v>
       </c>
       <c r="N5">
         <v>1.1</v>
       </c>
       <c r="O5">
-        <v>748328</v>
+        <v>860841</v>
       </c>
       <c r="P5">
-        <v>298.7</v>
+        <v>343.6</v>
       </c>
       <c r="Q5">
-        <v>1415.6</v>
+        <v>1581</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U5">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="V5">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W5">
         <v>2505</v>
       </c>
       <c r="X5">
-        <v>464.8</v>
+        <v>537</v>
       </c>
       <c r="Y5">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="Z5">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="AA5">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AB5">
-        <v>872632</v>
+        <v>1136889</v>
       </c>
       <c r="AC5">
-        <v>348.4</v>
+        <v>453.8</v>
       </c>
       <c r="AD5">
-        <v>1154.4</v>
+        <v>645.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -839,28 +839,28 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AH5">
-        <v>445</v>
+        <v>706</v>
       </c>
       <c r="AI5">
-        <v>36948</v>
+        <v>5487</v>
       </c>
       <c r="AJ5">
         <v>2505</v>
       </c>
       <c r="AK5">
-        <v>920.5</v>
+        <v>685.7</v>
       </c>
       <c r="AL5">
-        <v>948</v>
+        <v>1658</v>
       </c>
       <c r="AM5">
-        <v>37.8</v>
+        <v>66.2</v>
       </c>
       <c r="AN5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -868,13 +868,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>50940</v>
+        <v>55848</v>
       </c>
       <c r="C6">
-        <v>3396</v>
+        <v>3723.2</v>
       </c>
       <c r="D6">
-        <v>12233.9</v>
+        <v>13441.8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>51.5</v>
       </c>
       <c r="I6">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6">
-        <v>10188</v>
+        <v>11169.6</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -907,13 +907,13 @@
         <v>-0.7</v>
       </c>
       <c r="O6">
-        <v>21724</v>
+        <v>25527</v>
       </c>
       <c r="P6">
-        <v>1448.3</v>
+        <v>1701.8</v>
       </c>
       <c r="Q6">
-        <v>5378.6</v>
+        <v>6341.5</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -925,16 +925,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="V6">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W6">
         <v>15</v>
       </c>
       <c r="X6">
-        <v>4344.8</v>
+        <v>5105.4</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -943,16 +943,16 @@
         <v>33.3</v>
       </c>
       <c r="AA6">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AB6">
-        <v>675</v>
+        <v>1993</v>
       </c>
       <c r="AC6">
-        <v>45</v>
+        <v>132.9</v>
       </c>
       <c r="AD6">
-        <v>174.3</v>
+        <v>305.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -964,25 +964,25 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AI6">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AJ6">
         <v>15</v>
       </c>
       <c r="AK6">
-        <v>675</v>
+        <v>398.6</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM6">
-        <v>6.7</v>
+        <v>33.3</v>
       </c>
       <c r="AN6">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -990,13 +990,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>51766</v>
+        <v>66181</v>
       </c>
       <c r="C7">
-        <v>550.7</v>
+        <v>704.1</v>
       </c>
       <c r="D7">
-        <v>1742.2</v>
+        <v>2557</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1008,34 +1008,34 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>525.2</v>
+        <v>567.8</v>
       </c>
       <c r="I7">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="J7">
         <v>94</v>
       </c>
       <c r="K7">
-        <v>1150.4</v>
+        <v>1504.1</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>47.9</v>
+        <v>46.8</v>
       </c>
       <c r="N7">
         <v>0.2</v>
       </c>
       <c r="O7">
-        <v>18156</v>
+        <v>26802</v>
       </c>
       <c r="P7">
-        <v>193.1</v>
+        <v>285.1</v>
       </c>
       <c r="Q7">
-        <v>1081.3</v>
+        <v>1828.3</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1047,34 +1047,34 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>64.8</v>
+        <v>84.5</v>
       </c>
       <c r="V7">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="W7">
         <v>94</v>
       </c>
       <c r="X7">
-        <v>422.2</v>
+        <v>638.1</v>
       </c>
       <c r="Y7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z7">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="AA7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>46688</v>
+        <v>34350</v>
       </c>
       <c r="AC7">
-        <v>496.7</v>
+        <v>365.4</v>
       </c>
       <c r="AD7">
-        <v>1384.1</v>
+        <v>451</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1083,28 +1083,28 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AH7">
-        <v>534.8</v>
+        <v>701.5</v>
       </c>
       <c r="AI7">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AJ7">
         <v>94</v>
       </c>
       <c r="AK7">
-        <v>1506.1</v>
+        <v>648.1</v>
       </c>
       <c r="AL7">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AM7">
-        <v>33</v>
+        <v>56.4</v>
       </c>
       <c r="AN7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1112,13 +1112,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>315541</v>
+        <v>365975</v>
       </c>
       <c r="C8">
-        <v>638.7</v>
+        <v>740.8</v>
       </c>
       <c r="D8">
-        <v>2445.9</v>
+        <v>2684.7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1127,37 +1127,37 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>543.2</v>
+        <v>625.5</v>
       </c>
       <c r="I8">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="J8">
         <v>494</v>
       </c>
       <c r="K8">
-        <v>1247.2</v>
+        <v>1481.7</v>
       </c>
       <c r="L8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M8">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O8">
-        <v>101125</v>
+        <v>117975</v>
       </c>
       <c r="P8">
-        <v>204.7</v>
+        <v>238.8</v>
       </c>
       <c r="Q8">
-        <v>868.9</v>
+        <v>1021.5</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1166,37 +1166,37 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>92.2</v>
+        <v>107</v>
       </c>
       <c r="V8">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="W8">
         <v>494</v>
       </c>
       <c r="X8">
-        <v>392</v>
+        <v>466.3</v>
       </c>
       <c r="Y8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z8">
-        <v>52.2</v>
+        <v>51.2</v>
       </c>
       <c r="AA8">
         <v>0.4</v>
       </c>
       <c r="AB8">
-        <v>160903</v>
+        <v>197374</v>
       </c>
       <c r="AC8">
-        <v>325.7</v>
+        <v>399.5</v>
       </c>
       <c r="AD8">
-        <v>1766.4</v>
+        <v>743</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1205,28 +1205,28 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AH8">
-        <v>126.5</v>
+        <v>561</v>
       </c>
       <c r="AI8">
-        <v>36858</v>
+        <v>8295</v>
       </c>
       <c r="AJ8">
         <v>494</v>
       </c>
       <c r="AK8">
-        <v>1200.8</v>
+        <v>675.9</v>
       </c>
       <c r="AL8">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="AM8">
-        <v>27.1</v>
+        <v>59.1</v>
       </c>
       <c r="AN8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>97303</v>
+        <v>115047</v>
       </c>
       <c r="C9">
-        <v>470.1</v>
+        <v>555.8</v>
       </c>
       <c r="D9">
-        <v>922</v>
+        <v>1107.7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1252,16 +1252,16 @@
         <v>18</v>
       </c>
       <c r="H9">
-        <v>498.5</v>
+        <v>597.5</v>
       </c>
       <c r="I9">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="J9">
         <v>207</v>
       </c>
       <c r="K9">
-        <v>838.8</v>
+        <v>991.8</v>
       </c>
       <c r="L9">
         <v>116</v>
@@ -1273,13 +1273,13 @@
         <v>0.7</v>
       </c>
       <c r="O9">
-        <v>19229</v>
+        <v>22411</v>
       </c>
       <c r="P9">
-        <v>92.90000000000001</v>
+        <v>108.3</v>
       </c>
       <c r="Q9">
-        <v>281.9</v>
+        <v>346.9</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1288,37 +1288,37 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>68.5</v>
+        <v>82.5</v>
       </c>
       <c r="V9">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="W9">
         <v>207</v>
       </c>
       <c r="X9">
-        <v>164.4</v>
+        <v>193.2</v>
       </c>
       <c r="Y9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="AA9">
         <v>0.7</v>
       </c>
       <c r="AB9">
-        <v>104876</v>
+        <v>91795</v>
       </c>
       <c r="AC9">
-        <v>506.6</v>
+        <v>443.5</v>
       </c>
       <c r="AD9">
-        <v>1511.3</v>
+        <v>675.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1327,28 +1327,28 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AH9">
-        <v>430.5</v>
+        <v>627</v>
       </c>
       <c r="AI9">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AJ9">
         <v>207</v>
       </c>
       <c r="AK9">
-        <v>1165.3</v>
+        <v>717.1</v>
       </c>
       <c r="AL9">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AM9">
-        <v>43.5</v>
+        <v>61.8</v>
       </c>
       <c r="AN9">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
